--- a/N2核心词汇.xlsx
+++ b/N2核心词汇.xlsx
@@ -17524,7 +17524,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -17553,7 +17553,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0</v>
@@ -17585,7 +17585,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="44" t="n">
         <v>0</v>
@@ -17620,7 +17620,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -17649,10 +17649,10 @@
         <v>43</v>
       </c>
       <c r="F7" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -17684,7 +17684,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="44" t="n">
         <v>0</v>
@@ -17751,7 +17751,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="44" t="n">
         <v>0</v>
@@ -17786,7 +17786,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="44" t="n">
         <v>0</v>
@@ -17821,7 +17821,7 @@
         <v>67</v>
       </c>
       <c r="F12" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="44" t="n">
         <v>0</v>
@@ -17853,7 +17853,7 @@
         <v>72</v>
       </c>
       <c r="F13" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="44" t="n">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>82</v>
       </c>
       <c r="F15" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="44" t="n">
         <v>0</v>
@@ -17955,7 +17955,7 @@
         <v>86</v>
       </c>
       <c r="F16" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="44" t="n">
         <v>0</v>
@@ -18022,7 +18022,7 @@
         <v>95</v>
       </c>
       <c r="F18" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="44" t="n">
         <v>0</v>
@@ -18054,10 +18054,10 @@
         <v>99</v>
       </c>
       <c r="F19" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -18086,10 +18086,10 @@
         <v>103</v>
       </c>
       <c r="F20" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
@@ -18118,7 +18118,7 @@
         <v>108</v>
       </c>
       <c r="F21" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="44" t="n">
         <v>0</v>
@@ -18182,7 +18182,7 @@
         <v>117</v>
       </c>
       <c r="F23" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="44" t="n">
         <v>0</v>
@@ -18220,10 +18220,10 @@
         <v>123</v>
       </c>
       <c r="F24" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
@@ -18252,7 +18252,7 @@
         <v>128</v>
       </c>
       <c r="F25" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="44" t="n">
         <v>0</v>
@@ -18287,7 +18287,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="44" t="n">
         <v>0</v>
@@ -18331,7 +18331,7 @@
         <v>142</v>
       </c>
       <c r="F27" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="44" t="n">
         <v>0</v>
@@ -18363,7 +18363,7 @@
         <v>147</v>
       </c>
       <c r="F28" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="44" t="n">
         <v>0</v>
@@ -18395,7 +18395,7 @@
         <v>152</v>
       </c>
       <c r="F29" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="44" t="n">
         <v>0</v>
@@ -18427,7 +18427,7 @@
         <v>157</v>
       </c>
       <c r="F30" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="44" t="n">
         <v>0</v>
@@ -18459,7 +18459,7 @@
         <v>162</v>
       </c>
       <c r="F31" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="44" t="n">
         <v>0</v>
@@ -18491,7 +18491,7 @@
         <v>167</v>
       </c>
       <c r="F32" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="44" t="n">
         <v>0</v>
@@ -18523,10 +18523,10 @@
         <v>171</v>
       </c>
       <c r="F33" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>21</v>
@@ -18558,7 +18558,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="44" t="n">
         <v>0</v>
@@ -18593,7 +18593,7 @@
         <v>20</v>
       </c>
       <c r="F35" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="44" t="n">
         <v>0</v>
@@ -18625,7 +18625,7 @@
         <v>185</v>
       </c>
       <c r="F36" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="44" t="n">
         <v>0</v>
@@ -18660,7 +18660,7 @@
         <v>20</v>
       </c>
       <c r="F37" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="44" t="n">
         <v>0</v>
@@ -18692,10 +18692,10 @@
         <v>195</v>
       </c>
       <c r="F38" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>21</v>
@@ -18727,7 +18727,7 @@
         <v>20</v>
       </c>
       <c r="F39" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" s="44" t="n">
         <v>0</v>
@@ -18759,7 +18759,7 @@
         <v>205</v>
       </c>
       <c r="F40" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="44" t="n">
         <v>0</v>
@@ -18823,7 +18823,7 @@
         <v>215</v>
       </c>
       <c r="F42" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="44" t="n">
         <v>0</v>
@@ -18855,7 +18855,7 @@
         <v>220</v>
       </c>
       <c r="F43" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" s="44" t="n">
         <v>0</v>
@@ -18896,7 +18896,7 @@
         <v>20</v>
       </c>
       <c r="F44" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="44" t="n">
         <v>0</v>
@@ -18969,7 +18969,7 @@
         <v>239</v>
       </c>
       <c r="F46" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="44" t="n">
         <v>0</v>
@@ -19004,10 +19004,10 @@
         <v>20</v>
       </c>
       <c r="F47" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>35</v>
@@ -19103,7 +19103,7 @@
         <v>259</v>
       </c>
       <c r="F50" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" s="44" t="n">
         <v>0</v>
@@ -19141,7 +19141,7 @@
         <v>266</v>
       </c>
       <c r="F51" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="44" t="n">
         <v>0</v>
@@ -19173,10 +19173,10 @@
         <v>271</v>
       </c>
       <c r="F52" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>48</v>
@@ -19237,7 +19237,7 @@
         <v>279</v>
       </c>
       <c r="F54" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="44" t="n">
         <v>0</v>
@@ -19269,7 +19269,7 @@
         <v>283</v>
       </c>
       <c r="F55" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="44" t="n">
         <v>0</v>
@@ -19333,10 +19333,10 @@
         <v>292</v>
       </c>
       <c r="F57" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>21</v>
@@ -19368,7 +19368,7 @@
         <v>20</v>
       </c>
       <c r="F58" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="44" t="n">
         <v>0</v>
@@ -19400,7 +19400,7 @@
         <v>302</v>
       </c>
       <c r="F59" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="44" t="n">
         <v>0</v>
@@ -19432,7 +19432,7 @@
         <v>308</v>
       </c>
       <c r="F60" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="44" t="n">
         <v>0</v>
@@ -19464,7 +19464,7 @@
         <v>313</v>
       </c>
       <c r="F61" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="44" t="n">
         <v>0</v>
@@ -19499,7 +19499,7 @@
         <v>20</v>
       </c>
       <c r="F62" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62" s="44" t="n">
         <v>0</v>
@@ -19569,7 +19569,7 @@
         <v>20</v>
       </c>
       <c r="F64" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="44" t="n">
         <v>0</v>
@@ -19604,7 +19604,7 @@
         <v>20</v>
       </c>
       <c r="F65" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="44" t="n">
         <v>0</v>
@@ -19636,10 +19636,10 @@
         <v>334</v>
       </c>
       <c r="F66" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>87</v>
@@ -19703,7 +19703,7 @@
         <v>20</v>
       </c>
       <c r="F68" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="44" t="n">
         <v>0</v>
@@ -19735,7 +19735,7 @@
         <v>349</v>
       </c>
       <c r="F69" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" s="44" t="n">
         <v>0</v>
@@ -19767,10 +19767,10 @@
         <v>354</v>
       </c>
       <c r="F70" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>21</v>
@@ -19799,10 +19799,10 @@
         <v>359</v>
       </c>
       <c r="F71" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
         <v>21</v>
@@ -19863,10 +19863,10 @@
         <v>368</v>
       </c>
       <c r="F73" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>21</v>
@@ -19895,7 +19895,7 @@
         <v>372</v>
       </c>
       <c r="F74" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74" s="44" t="n">
         <v>0</v>
@@ -19927,7 +19927,7 @@
         <v>376</v>
       </c>
       <c r="F75" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="44" t="n">
         <v>0</v>
@@ -19962,7 +19962,7 @@
         <v>20</v>
       </c>
       <c r="F76" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="44" t="n">
         <v>0</v>
@@ -19994,7 +19994,7 @@
         <v>384</v>
       </c>
       <c r="F77" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="44" t="n">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>395</v>
       </c>
       <c r="F79" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>48</v>
@@ -20096,7 +20096,7 @@
         <v>395</v>
       </c>
       <c r="F80" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G80" s="44" t="n">
         <v>0</v>
@@ -20137,7 +20137,7 @@
         <v>20</v>
       </c>
       <c r="F81" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81" s="44" t="n">
         <v>0</v>
@@ -20175,7 +20175,7 @@
         <v>412</v>
       </c>
       <c r="F82" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="44" t="n">
         <v>0</v>
@@ -20207,7 +20207,7 @@
         <v>417</v>
       </c>
       <c r="F83" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="44" t="n">
         <v>0</v>
@@ -20239,7 +20239,7 @@
         <v>421</v>
       </c>
       <c r="F84" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84" s="44" t="n">
         <v>0</v>
@@ -20274,7 +20274,7 @@
         <v>20</v>
       </c>
       <c r="F85" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G85" s="44" t="n">
         <v>0</v>
@@ -20309,7 +20309,7 @@
         <v>20</v>
       </c>
       <c r="F86" s="44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" s="44" t="n">
         <v>0</v>
@@ -20341,7 +20341,7 @@
         <v>436</v>
       </c>
       <c r="F87" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="44" t="n">
         <v>0</v>
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>21</v>
@@ -20411,7 +20411,7 @@
         <v>447</v>
       </c>
       <c r="F89" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89" s="44" t="n">
         <v>0</v>
@@ -20443,7 +20443,7 @@
         <v>452</v>
       </c>
       <c r="F90" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="44" t="n">
         <v>0</v>
@@ -20510,7 +20510,7 @@
         <v>462</v>
       </c>
       <c r="F92" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="44" t="n">
         <v>0</v>
@@ -20542,7 +20542,7 @@
         <v>467</v>
       </c>
       <c r="F93" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93" s="44" t="n">
         <v>0</v>
@@ -20574,7 +20574,7 @@
         <v>471</v>
       </c>
       <c r="F94" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" s="44" t="n">
         <v>0</v>
@@ -20606,7 +20606,7 @@
         <v>477</v>
       </c>
       <c r="F95" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="44" t="n">
         <v>0</v>
@@ -20638,7 +20638,7 @@
         <v>483</v>
       </c>
       <c r="F96" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="44" t="n">
         <v>1</v>
@@ -20673,7 +20673,7 @@
         <v>20</v>
       </c>
       <c r="F97" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="44" t="n">
         <v>0</v>
@@ -20705,7 +20705,7 @@
         <v>493</v>
       </c>
       <c r="F98" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G98" s="44" t="n">
         <v>0</v>
@@ -20743,7 +20743,7 @@
         <v>500</v>
       </c>
       <c r="F99" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="44" t="n">
         <v>0</v>
@@ -20775,7 +20775,7 @@
         <v>505</v>
       </c>
       <c r="F100" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="44" t="n">
         <v>0</v>
@@ -20848,7 +20848,7 @@
         <v>20</v>
       </c>
       <c r="F102" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="44" t="n">
         <v>0</v>
@@ -20912,7 +20912,7 @@
         <v>525</v>
       </c>
       <c r="F104" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="44" t="n">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>531</v>
       </c>
       <c r="F105" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="44" t="n">
         <v>0</v>
@@ -21058,7 +21058,7 @@
         <v>535</v>
       </c>
       <c r="F108" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="44" t="n">
         <v>0</v>
@@ -21099,10 +21099,10 @@
         <v>20</v>
       </c>
       <c r="F109" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G109" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>21</v>
@@ -21131,7 +21131,7 @@
         <v>546</v>
       </c>
       <c r="F110" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G110" s="44" t="n">
         <v>0</v>
@@ -21163,7 +21163,7 @@
         <v>550</v>
       </c>
       <c r="F111" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" s="44" t="n">
         <v>0</v>
@@ -21195,7 +21195,7 @@
         <v>555</v>
       </c>
       <c r="F112" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="44" t="n">
         <v>0</v>
@@ -21236,7 +21236,7 @@
         <v>20</v>
       </c>
       <c r="F113" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G113" s="44" t="n">
         <v>0</v>
@@ -21268,10 +21268,10 @@
         <v>566</v>
       </c>
       <c r="F114" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>21</v>
@@ -21300,7 +21300,7 @@
         <v>570</v>
       </c>
       <c r="F115" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="44" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>574</v>
       </c>
       <c r="F116" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="44" t="n">
         <v>0</v>
@@ -21402,7 +21402,7 @@
         <v>584</v>
       </c>
       <c r="F118" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="44" t="n">
         <v>0</v>
@@ -21434,7 +21434,7 @@
         <v>590</v>
       </c>
       <c r="F119" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="44" t="n">
         <v>0</v>
@@ -21469,7 +21469,7 @@
         <v>20</v>
       </c>
       <c r="F120" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G120" s="44" t="n">
         <v>0</v>
@@ -21501,7 +21501,7 @@
         <v>600</v>
       </c>
       <c r="F121" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" s="44" t="n">
         <v>0</v>
@@ -21565,7 +21565,7 @@
         <v>610</v>
       </c>
       <c r="F123" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="44" t="n">
         <v>0</v>
@@ -21629,7 +21629,7 @@
         <v>618</v>
       </c>
       <c r="F125" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="44" t="n">
         <v>0</v>
@@ -21661,7 +21661,7 @@
         <v>623</v>
       </c>
       <c r="F126" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="44" t="n">
         <v>0</v>
@@ -21693,7 +21693,7 @@
         <v>628</v>
       </c>
       <c r="F127" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="44" t="n">
         <v>0</v>
@@ -21725,10 +21725,10 @@
         <v>633</v>
       </c>
       <c r="F128" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G128" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="s">
         <v>21</v>
@@ -21757,7 +21757,7 @@
         <v>638</v>
       </c>
       <c r="F129" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G129" s="44" t="n">
         <v>0</v>
@@ -21795,10 +21795,10 @@
         <v>645</v>
       </c>
       <c r="F130" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G130" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>646</v>
@@ -21830,10 +21830,10 @@
         <v>20</v>
       </c>
       <c r="F131" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G131" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>652</v>
@@ -21865,7 +21865,7 @@
         <v>20</v>
       </c>
       <c r="F132" s="44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G132" s="44" t="n">
         <v>0</v>
@@ -21897,10 +21897,10 @@
         <v>662</v>
       </c>
       <c r="F133" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>21</v>
@@ -21929,7 +21929,7 @@
         <v>666</v>
       </c>
       <c r="F134" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="44" t="n">
         <v>0</v>
@@ -21961,7 +21961,7 @@
         <v>670</v>
       </c>
       <c r="F135" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" s="44" t="n">
         <v>0</v>
@@ -21993,7 +21993,7 @@
         <v>674</v>
       </c>
       <c r="F136" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" s="44" t="n">
         <v>0</v>
@@ -22025,7 +22025,7 @@
         <v>679</v>
       </c>
       <c r="F137" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G137" s="44" t="n">
         <v>0</v>
@@ -22089,7 +22089,7 @@
         <v>689</v>
       </c>
       <c r="F139" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="44" t="n">
         <v>0</v>
@@ -22121,10 +22121,10 @@
         <v>694</v>
       </c>
       <c r="F140" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>21</v>
@@ -22156,7 +22156,7 @@
         <v>20</v>
       </c>
       <c r="F141" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G141" s="44" t="n">
         <v>0</v>
@@ -22191,7 +22191,7 @@
         <v>20</v>
       </c>
       <c r="F142" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" s="44" t="n">
         <v>1</v>
@@ -22232,7 +22232,7 @@
         <v>20</v>
       </c>
       <c r="F143" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G143" s="44" t="n">
         <v>0</v>
@@ -22273,7 +22273,7 @@
         <v>20</v>
       </c>
       <c r="F144" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="44" t="n">
         <v>0</v>
@@ -22305,7 +22305,7 @@
         <v>717</v>
       </c>
       <c r="F145" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" s="44" t="n">
         <v>0</v>
@@ -22337,7 +22337,7 @@
         <v>721</v>
       </c>
       <c r="F146" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" s="44" t="n">
         <v>0</v>
@@ -22401,7 +22401,7 @@
         <v>730</v>
       </c>
       <c r="F148" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G148" s="44" t="n">
         <v>0</v>
@@ -22471,7 +22471,7 @@
         <v>20</v>
       </c>
       <c r="F150" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G150" s="44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         <v>20</v>
       </c>
       <c r="F152" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" s="44" t="n">
         <v>0</v>
@@ -22576,7 +22576,7 @@
         <v>752</v>
       </c>
       <c r="F153" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" s="44" t="n">
         <v>0</v>
@@ -22643,7 +22643,7 @@
         <v>20</v>
       </c>
       <c r="F155" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G155" s="44" t="n">
         <v>0</v>
@@ -22681,7 +22681,7 @@
         <v>767</v>
       </c>
       <c r="F156" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" s="44" t="n">
         <v>0</v>
@@ -22713,7 +22713,7 @@
         <v>771</v>
       </c>
       <c r="F157" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G157" s="44" t="n">
         <v>0</v>
@@ -22745,10 +22745,10 @@
         <v>775</v>
       </c>
       <c r="F158" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>478</v>
@@ -22777,7 +22777,7 @@
         <v>779</v>
       </c>
       <c r="F159" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" s="44" t="n">
         <v>0</v>
@@ -22812,7 +22812,7 @@
         <v>20</v>
       </c>
       <c r="F160" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" s="44" t="n">
         <v>0</v>
@@ -22844,7 +22844,7 @@
         <v>787</v>
       </c>
       <c r="F161" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G161" s="44" t="n">
         <v>0</v>
@@ -22876,7 +22876,7 @@
         <v>791</v>
       </c>
       <c r="F162" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" s="44" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>795</v>
       </c>
       <c r="F163" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" s="44" t="n">
         <v>0</v>
@@ -22940,7 +22940,7 @@
         <v>801</v>
       </c>
       <c r="F164" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G164" s="44" t="n">
         <v>0</v>
@@ -22972,7 +22972,7 @@
         <v>806</v>
       </c>
       <c r="F165" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G165" s="44" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>811</v>
       </c>
       <c r="F166" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" s="44" t="n">
         <v>0</v>
@@ -23036,7 +23036,7 @@
         <v>816</v>
       </c>
       <c r="F167" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" s="44" t="n">
         <v>0</v>
@@ -23100,10 +23100,10 @@
         <v>826</v>
       </c>
       <c r="F169" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>478</v>
@@ -23138,7 +23138,7 @@
         <v>833</v>
       </c>
       <c r="F170" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G170" s="44" t="n">
         <v>0</v>
@@ -23205,10 +23205,10 @@
         <v>843</v>
       </c>
       <c r="F172" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G172" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>478</v>
@@ -23237,7 +23237,7 @@
         <v>848</v>
       </c>
       <c r="F173" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" s="44" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>390</v>
@@ -23301,7 +23301,7 @@
         <v>859</v>
       </c>
       <c r="F175" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" s="44" t="n">
         <v>0</v>
@@ -23333,7 +23333,7 @@
         <v>864</v>
       </c>
       <c r="F176" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G176" s="44" t="n">
         <v>0</v>
@@ -23371,7 +23371,7 @@
         <v>869</v>
       </c>
       <c r="F177" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" s="44" t="n">
         <v>0</v>
@@ -23409,7 +23409,7 @@
         <v>877</v>
       </c>
       <c r="F178" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" s="44" t="n">
         <v>0</v>
@@ -23441,7 +23441,7 @@
         <v>882</v>
       </c>
       <c r="F179" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G179" s="44" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>887</v>
       </c>
       <c r="F180" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" s="44" t="n">
         <v>0</v>
@@ -23505,7 +23505,7 @@
         <v>892</v>
       </c>
       <c r="F181" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" s="44" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>897</v>
       </c>
       <c r="F182" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="44" t="n">
         <v>0</v>
@@ -23601,7 +23601,7 @@
         <v>908</v>
       </c>
       <c r="F184" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="44" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>913</v>
       </c>
       <c r="F185" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" s="44" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>918</v>
       </c>
       <c r="F186" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G186" s="44" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>923</v>
       </c>
       <c r="F187" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G187" s="44" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         <v>928</v>
       </c>
       <c r="F188" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G188" s="44" t="n">
         <v>0</v>
@@ -23805,10 +23805,10 @@
         <v>937</v>
       </c>
       <c r="F190" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H190" t="s">
         <v>478</v>
@@ -23837,7 +23837,7 @@
         <v>942</v>
       </c>
       <c r="F191" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" s="44" t="n">
         <v>0</v>
@@ -23869,7 +23869,7 @@
         <v>947</v>
       </c>
       <c r="F192" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" s="44" t="n">
         <v>0</v>
@@ -23939,7 +23939,7 @@
         <v>952</v>
       </c>
       <c r="F194" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" s="44" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>961</v>
       </c>
       <c r="F195" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G195" s="44" t="n">
         <v>0</v>
@@ -24009,7 +24009,7 @@
         <v>966</v>
       </c>
       <c r="F196" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" s="44" t="n">
         <v>1</v>
@@ -24041,7 +24041,7 @@
         <v>971</v>
       </c>
       <c r="F197" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" s="44" t="n">
         <v>0</v>
@@ -24079,10 +24079,10 @@
         <v>978</v>
       </c>
       <c r="F198" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>726</v>
@@ -24117,7 +24117,7 @@
         <v>985</v>
       </c>
       <c r="F199" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" s="44" t="n">
         <v>0</v>
@@ -24149,7 +24149,7 @@
         <v>990</v>
       </c>
       <c r="F200" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" s="44" t="n">
         <v>1</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>646</v>
@@ -24219,7 +24219,7 @@
         <v>1002</v>
       </c>
       <c r="F202" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" s="44" t="n">
         <v>0</v>
@@ -24260,10 +24260,10 @@
         <v>20</v>
       </c>
       <c r="F203" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>1010</v>
@@ -24292,7 +24292,7 @@
         <v>1015</v>
       </c>
       <c r="F204" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G204" s="44" t="n">
         <v>0</v>
@@ -24324,7 +24324,7 @@
         <v>1020</v>
       </c>
       <c r="F205" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G205" s="44" t="n">
         <v>0</v>
@@ -24362,7 +24362,7 @@
         <v>1028</v>
       </c>
       <c r="F206" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206" s="44" t="n">
         <v>0</v>
@@ -24394,7 +24394,7 @@
         <v>1033</v>
       </c>
       <c r="F207" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" s="44" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>1043</v>
       </c>
       <c r="F209" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209" s="44" t="n">
         <v>0</v>
@@ -24554,7 +24554,7 @@
         <v>1058</v>
       </c>
       <c r="F212" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G212" s="44" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>1068</v>
       </c>
       <c r="F214" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214" s="44" t="n">
         <v>0</v>
@@ -24650,7 +24650,7 @@
         <v>1073</v>
       </c>
       <c r="F215" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" s="44" t="n">
         <v>0</v>
@@ -24714,7 +24714,7 @@
         <v>1083</v>
       </c>
       <c r="F217" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" s="44" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>1088</v>
       </c>
       <c r="F218" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" s="44" t="n">
         <v>0</v>
@@ -24778,7 +24778,7 @@
         <v>1093</v>
       </c>
       <c r="F219" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219" s="44" t="n">
         <v>0</v>
@@ -24810,7 +24810,7 @@
         <v>1098</v>
       </c>
       <c r="F220" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220" s="44" t="n">
         <v>0</v>
@@ -24848,7 +24848,7 @@
         <v>1105</v>
       </c>
       <c r="F221" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" s="44" t="n">
         <v>0</v>
@@ -24877,7 +24877,7 @@
         <v>1108</v>
       </c>
       <c r="F222" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" s="44" t="n">
         <v>0</v>
@@ -24915,7 +24915,7 @@
         <v>1115</v>
       </c>
       <c r="F223" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G223" s="44" t="n">
         <v>0</v>
@@ -24947,10 +24947,10 @@
         <v>1120</v>
       </c>
       <c r="F224" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>478</v>
@@ -24979,7 +24979,7 @@
         <v>1125</v>
       </c>
       <c r="F225" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" s="44" t="n">
         <v>0</v>
@@ -25011,7 +25011,7 @@
         <v>1131</v>
       </c>
       <c r="F226" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G226" s="44" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>1136</v>
       </c>
       <c r="F227" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G227" s="44" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>1141</v>
       </c>
       <c r="F228" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" s="44" t="n">
         <v>0</v>
@@ -25139,7 +25139,7 @@
         <v>1151</v>
       </c>
       <c r="F230" s="44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G230" s="44" t="n">
         <v>0</v>
@@ -25177,7 +25177,7 @@
         <v>1158</v>
       </c>
       <c r="F231" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231" s="44" t="n">
         <v>0</v>
@@ -25215,7 +25215,7 @@
         <v>1165</v>
       </c>
       <c r="F232" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232" s="44" t="n">
         <v>0</v>
@@ -25247,7 +25247,7 @@
         <v>1169</v>
       </c>
       <c r="F233" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233" s="44" t="n">
         <v>0</v>
@@ -25279,7 +25279,7 @@
         <v>1174</v>
       </c>
       <c r="F234" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G234" s="44" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         <v>1179</v>
       </c>
       <c r="F235" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235" s="44" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>590</v>
       </c>
       <c r="F237" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237" s="44" t="n">
         <v>0</v>
@@ -25407,7 +25407,7 @@
         <v>1190</v>
       </c>
       <c r="F238" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" s="44" t="n">
         <v>0</v>
@@ -25471,7 +25471,7 @@
         <v>1200</v>
       </c>
       <c r="F240" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240" s="44" t="n">
         <v>0</v>
@@ -25503,7 +25503,7 @@
         <v>1205</v>
       </c>
       <c r="F241" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G241" s="44" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>20</v>
       </c>
       <c r="F242" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G242" s="44" t="n">
         <v>0</v>
@@ -25570,10 +25570,10 @@
         <v>1215</v>
       </c>
       <c r="F243" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>478</v>
@@ -25605,7 +25605,7 @@
         <v>20</v>
       </c>
       <c r="F244" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" s="44" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>1225</v>
       </c>
       <c r="F245" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>478</v>
@@ -25669,7 +25669,7 @@
         <v>1229</v>
       </c>
       <c r="F246" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G246" s="44" t="n">
         <v>0</v>
@@ -25701,7 +25701,7 @@
         <v>1235</v>
       </c>
       <c r="F247" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G247" s="44" t="n">
         <v>0</v>
@@ -25733,7 +25733,7 @@
         <v>1238</v>
       </c>
       <c r="F248" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G248" s="44" t="n">
         <v>0</v>
@@ -25765,7 +25765,7 @@
         <v>1244</v>
       </c>
       <c r="F249" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G249" s="44" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>1249</v>
       </c>
       <c r="F250" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G250" s="44" t="n">
         <v>1</v>
@@ -25829,7 +25829,7 @@
         <v>1252</v>
       </c>
       <c r="F251" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251" s="44" t="n">
         <v>0</v>
@@ -25861,10 +25861,10 @@
         <v>1258</v>
       </c>
       <c r="F252" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>478</v>
@@ -25896,7 +25896,7 @@
         <v>0</v>
       </c>
       <c r="G253" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>478</v>
@@ -25925,10 +25925,10 @@
         <v>1267</v>
       </c>
       <c r="F254" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>646</v>
@@ -25960,7 +25960,7 @@
         <v>20</v>
       </c>
       <c r="F255" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255" s="44" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>1278</v>
       </c>
       <c r="F256" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G256" s="44" t="n">
         <v>0</v>
@@ -26024,7 +26024,7 @@
         <v>1283</v>
       </c>
       <c r="F257" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G257" s="44" t="n">
         <v>0</v>
@@ -26056,7 +26056,7 @@
         <v>1288</v>
       </c>
       <c r="F258" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G258" s="44" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>1291</v>
       </c>
       <c r="F259" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>646</v>
@@ -26152,7 +26152,7 @@
         <v>1302</v>
       </c>
       <c r="F261" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261" s="44" t="n">
         <v>0</v>
@@ -26184,7 +26184,7 @@
         <v>1307</v>
       </c>
       <c r="F262" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G262" s="44" t="n">
         <v>0</v>
@@ -26216,10 +26216,10 @@
         <v>1312</v>
       </c>
       <c r="F263" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G263" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>478</v>
@@ -26248,7 +26248,7 @@
         <v>1317</v>
       </c>
       <c r="F264" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G264" s="44" t="n">
         <v>0</v>
@@ -26312,7 +26312,7 @@
         <v>1328</v>
       </c>
       <c r="F266" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G266" s="44" t="n">
         <v>0</v>
@@ -26344,7 +26344,7 @@
         <v>1331</v>
       </c>
       <c r="F267" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G267" s="44" t="n">
         <v>0</v>
@@ -26382,7 +26382,7 @@
         <v>1339</v>
       </c>
       <c r="F268" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="44" t="n">
         <v>0</v>
@@ -26490,7 +26490,7 @@
         <v>1358</v>
       </c>
       <c r="F271" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" s="44" t="n">
         <v>0</v>
@@ -26522,7 +26522,7 @@
         <v>1363</v>
       </c>
       <c r="F272" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272" s="44" t="n">
         <v>0</v>
@@ -26554,7 +26554,7 @@
         <v>1368</v>
       </c>
       <c r="F273" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G273" s="44" t="n">
         <v>0</v>
@@ -26586,7 +26586,7 @@
         <v>1373</v>
       </c>
       <c r="F274" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G274" s="44" t="n">
         <v>0</v>
@@ -26618,10 +26618,10 @@
         <v>1378</v>
       </c>
       <c r="F275" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G275" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>478</v>
@@ -26656,7 +26656,7 @@
         <v>1386</v>
       </c>
       <c r="F276" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G276" s="44" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>1389</v>
       </c>
       <c r="F277" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277" s="44" t="n">
         <v>0</v>
@@ -26720,7 +26720,7 @@
         <v>1395</v>
       </c>
       <c r="F278" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278" s="44" t="n">
         <v>0</v>
@@ -26752,7 +26752,7 @@
         <v>1400</v>
       </c>
       <c r="F279" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G279" s="44" t="n">
         <v>1</v>
@@ -26784,7 +26784,7 @@
         <v>1405</v>
       </c>
       <c r="F280" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G280" s="44" t="n">
         <v>0</v>
@@ -26816,7 +26816,7 @@
         <v>1410</v>
       </c>
       <c r="F281" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281" s="44" t="n">
         <v>0</v>
@@ -26848,7 +26848,7 @@
         <v>1415</v>
       </c>
       <c r="F282" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G282" s="44" t="n">
         <v>0</v>
@@ -26880,7 +26880,7 @@
         <v>1420</v>
       </c>
       <c r="F283" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G283" s="44" t="n">
         <v>0</v>
@@ -26950,7 +26950,7 @@
         <v>1432</v>
       </c>
       <c r="F285" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G285" s="44" t="n">
         <v>0</v>
@@ -26982,7 +26982,7 @@
         <v>1438</v>
       </c>
       <c r="F286" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G286" s="44" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>1443</v>
       </c>
       <c r="F287" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G287" s="44" t="n">
         <v>0</v>
@@ -27049,7 +27049,7 @@
         <v>20</v>
       </c>
       <c r="F288" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G288" s="44" t="n">
         <v>0</v>
@@ -27081,7 +27081,7 @@
         <v>1453</v>
       </c>
       <c r="F289" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G289" s="44" t="n">
         <v>0</v>
@@ -27145,7 +27145,7 @@
         <v>1463</v>
       </c>
       <c r="F291" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291" s="44" t="n">
         <v>0</v>
@@ -27177,7 +27177,7 @@
         <v>1468</v>
       </c>
       <c r="F292" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G292" s="44" t="n">
         <v>0</v>
@@ -27209,7 +27209,7 @@
         <v>1473</v>
       </c>
       <c r="F293" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293" s="44" t="n">
         <v>0</v>
@@ -27241,7 +27241,7 @@
         <v>1478</v>
       </c>
       <c r="F294" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G294" s="44" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>1483</v>
       </c>
       <c r="F295" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" s="44" t="n">
         <v>0</v>
@@ -27305,7 +27305,7 @@
         <v>1489</v>
       </c>
       <c r="F296" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G296" s="44" t="n">
         <v>0</v>
@@ -27343,7 +27343,7 @@
         <v>1496</v>
       </c>
       <c r="F297" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" s="44" t="n">
         <v>0</v>
@@ -27375,7 +27375,7 @@
         <v>1501</v>
       </c>
       <c r="F298" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G298" s="44" t="n">
         <v>0</v>
@@ -27407,10 +27407,10 @@
         <v>1506</v>
       </c>
       <c r="F299" s="44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G299" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>726</v>
@@ -27439,7 +27439,7 @@
         <v>1511</v>
       </c>
       <c r="F300" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G300" s="44" t="n">
         <v>0</v>
@@ -27471,7 +27471,7 @@
         <v>1516</v>
       </c>
       <c r="F301" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G301" s="44" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>20</v>
       </c>
       <c r="F302" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G302" s="44" t="n">
         <v>0</v>
@@ -27538,7 +27538,7 @@
         <v>1526</v>
       </c>
       <c r="F303" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G303" s="44" t="n">
         <v>0</v>
@@ -27570,7 +27570,7 @@
         <v>1531</v>
       </c>
       <c r="F304" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G304" s="44" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>1536</v>
       </c>
       <c r="F305" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305" s="44" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>1542</v>
       </c>
       <c r="F306" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G306" s="44" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>1547</v>
       </c>
       <c r="F307" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307" s="44" t="n">
         <v>0</v>
@@ -27698,7 +27698,7 @@
         <v>1552</v>
       </c>
       <c r="F308" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G308" s="44" t="n">
         <v>0</v>
@@ -27730,7 +27730,7 @@
         <v>1557</v>
       </c>
       <c r="F309" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G309" s="44" t="n">
         <v>0</v>
@@ -27762,7 +27762,7 @@
         <v>1562</v>
       </c>
       <c r="F310" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G310" s="44" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>1567</v>
       </c>
       <c r="F311" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G311" s="44" t="n">
         <v>0</v>
@@ -27826,7 +27826,7 @@
         <v>1572</v>
       </c>
       <c r="F312" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G312" s="44" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G313" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>478</v>
@@ -27893,7 +27893,7 @@
         <v>1584</v>
       </c>
       <c r="F314" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314" s="44" t="n">
         <v>0</v>
@@ -27925,10 +27925,10 @@
         <v>1589</v>
       </c>
       <c r="F315" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G315" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H315" t="s">
         <v>478</v>
@@ -27957,7 +27957,7 @@
         <v>1594</v>
       </c>
       <c r="F316" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G316" s="44" t="n">
         <v>0</v>
@@ -28123,7 +28123,7 @@
         <v>1620</v>
       </c>
       <c r="F321" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G321" s="44" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>1625</v>
       </c>
       <c r="F322" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G322" s="44" t="n">
         <v>0</v>
@@ -28219,7 +28219,7 @@
         <v>1635</v>
       </c>
       <c r="F324" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G324" s="44" t="n">
         <v>0</v>
@@ -28251,10 +28251,10 @@
         <v>1640</v>
       </c>
       <c r="F325" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>478</v>
@@ -28283,7 +28283,7 @@
         <v>1646</v>
       </c>
       <c r="F326" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G326" s="44" t="n">
         <v>0</v>
@@ -28318,7 +28318,7 @@
         <v>20</v>
       </c>
       <c r="F327" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G327" s="44" t="n">
         <v>0</v>
@@ -28350,7 +28350,7 @@
         <v>1656</v>
       </c>
       <c r="F328" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G328" s="44" t="n">
         <v>0</v>
@@ -28449,7 +28449,7 @@
         <v>1671</v>
       </c>
       <c r="F331" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G331" s="44" t="n">
         <v>0</v>
@@ -28481,7 +28481,7 @@
         <v>1676</v>
       </c>
       <c r="F332" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G332" s="44" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>1686</v>
       </c>
       <c r="F334" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" s="44" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>1698</v>
       </c>
       <c r="F336" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G336" s="44" t="n">
         <v>0</v>
@@ -28647,7 +28647,7 @@
         <v>1703</v>
       </c>
       <c r="F337" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G337" s="44" t="n">
         <v>0</v>
@@ -28679,7 +28679,7 @@
         <v>1708</v>
       </c>
       <c r="F338" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338" s="44" t="n">
         <v>0</v>
@@ -28711,7 +28711,7 @@
         <v>1713</v>
       </c>
       <c r="F339" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339" s="44" t="n">
         <v>0</v>
@@ -28784,7 +28784,7 @@
         <v>1725</v>
       </c>
       <c r="F341" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G341" s="44" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>1730</v>
       </c>
       <c r="F342" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G342" s="44" t="n">
         <v>0</v>
@@ -28848,7 +28848,7 @@
         <v>1735</v>
       </c>
       <c r="F343" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G343" s="44" t="n">
         <v>0</v>
@@ -28909,7 +28909,7 @@
         <v>1745</v>
       </c>
       <c r="F345" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G345" s="44" t="n">
         <v>0</v>
@@ -28941,10 +28941,10 @@
         <v>1750</v>
       </c>
       <c r="F346" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G346" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
         <v>1751</v>
@@ -29043,7 +29043,7 @@
         <v>1768</v>
       </c>
       <c r="F349" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G349" s="44" t="n">
         <v>0</v>
@@ -29075,7 +29075,7 @@
         <v>1773</v>
       </c>
       <c r="F350" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G350" s="44" t="n">
         <v>0</v>
@@ -29107,7 +29107,7 @@
         <v>1778</v>
       </c>
       <c r="F351" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G351" s="44" t="n">
         <v>0</v>
@@ -29139,10 +29139,10 @@
         <v>1783</v>
       </c>
       <c r="F352" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G352" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H352" t="s">
         <v>1751</v>
@@ -29171,7 +29171,7 @@
         <v>1788</v>
       </c>
       <c r="F353" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G353" s="44" t="n">
         <v>0</v>
@@ -29203,7 +29203,7 @@
         <v>1793</v>
       </c>
       <c r="F354" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G354" s="44" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>1798</v>
       </c>
       <c r="F355" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G355" s="44" t="n">
         <v>0</v>
@@ -29264,7 +29264,7 @@
         <v>1803</v>
       </c>
       <c r="F356" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G356" s="44" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="G358" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>1751</v>
@@ -29366,7 +29366,7 @@
         <v>1819</v>
       </c>
       <c r="F359" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G359" s="44" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>1831</v>
       </c>
       <c r="F361" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G361" s="44" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>20</v>
       </c>
       <c r="F362" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G362" s="44" t="n">
         <v>0</v>
@@ -29503,7 +29503,7 @@
         <v>1841</v>
       </c>
       <c r="F363" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G363" s="44" t="n">
         <v>0</v>
@@ -29535,7 +29535,7 @@
         <v>1846</v>
       </c>
       <c r="F364" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G364" s="44" t="n">
         <v>0</v>
@@ -29596,10 +29596,10 @@
         <v>1855</v>
       </c>
       <c r="F366" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G366" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H366" t="s">
         <v>1751</v>
@@ -29628,10 +29628,10 @@
         <v>1860</v>
       </c>
       <c r="F367" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G367" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>1751</v>
@@ -29657,10 +29657,10 @@
         <v>1865</v>
       </c>
       <c r="F368" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G368" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368" t="s">
         <v>87</v>
@@ -29721,7 +29721,7 @@
         <v>1874</v>
       </c>
       <c r="F370" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G370" s="44" t="n">
         <v>0</v>
@@ -29753,7 +29753,7 @@
         <v>1879</v>
       </c>
       <c r="F371" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G371" s="44" t="n">
         <v>0</v>
@@ -29785,7 +29785,7 @@
         <v>1884</v>
       </c>
       <c r="F372" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G372" s="44" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>1889</v>
       </c>
       <c r="F373" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G373" s="44" t="n">
         <v>0</v>
@@ -29849,7 +29849,7 @@
         <v>1894</v>
       </c>
       <c r="F374" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G374" s="44" t="n">
         <v>0</v>
@@ -29884,7 +29884,7 @@
         <v>0</v>
       </c>
       <c r="G375" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H375" t="s">
         <v>1751</v>
@@ -29919,7 +29919,7 @@
         <v>1904</v>
       </c>
       <c r="F376" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G376" s="44" t="n">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>1908</v>
       </c>
       <c r="F377" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G377" s="44" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         <v>1912</v>
       </c>
       <c r="F378" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G378" s="44" t="n">
         <v>0</v>
@@ -30016,10 +30016,10 @@
       </c>
       <c r="E379" s="39" t="n"/>
       <c r="F379" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G379" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H379" t="s">
         <v>1751</v>
@@ -30048,7 +30048,7 @@
         <v>1922</v>
       </c>
       <c r="F380" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G380" s="44" t="n">
         <v>0</v>
@@ -30080,7 +30080,7 @@
         <v>1927</v>
       </c>
       <c r="F381" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G381" s="44" t="n">
         <v>0</v>
@@ -30112,7 +30112,7 @@
         <v>1932</v>
       </c>
       <c r="F382" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G382" s="44" t="n">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>1937</v>
       </c>
       <c r="F383" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G383" s="44" t="n">
         <v>0</v>
@@ -30179,7 +30179,7 @@
         <v>1944</v>
       </c>
       <c r="F384" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G384" s="44" t="n">
         <v>0</v>
@@ -30211,10 +30211,10 @@
         <v>1949</v>
       </c>
       <c r="F385" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G385" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H385" t="s">
         <v>405</v>
@@ -30243,7 +30243,7 @@
         <v>1954</v>
       </c>
       <c r="F386" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G386" s="44" t="n">
         <v>0</v>
@@ -30275,7 +30275,7 @@
         <v>1959</v>
       </c>
       <c r="F387" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G387" s="44" t="n">
         <v>0</v>
@@ -30313,10 +30313,10 @@
         <v>1966</v>
       </c>
       <c r="F388" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G388" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H388" t="s">
         <v>405</v>
@@ -30345,7 +30345,7 @@
         <v>1971</v>
       </c>
       <c r="F389" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G389" s="44" t="n">
         <v>0</v>
@@ -30409,7 +30409,7 @@
         <v>1981</v>
       </c>
       <c r="F391" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G391" s="44" t="n">
         <v>0</v>
@@ -30473,7 +30473,7 @@
         <v>1991</v>
       </c>
       <c r="F393" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G393" s="44" t="n">
         <v>0</v>
@@ -30537,7 +30537,7 @@
         <v>2001</v>
       </c>
       <c r="F395" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G395" s="44" t="n">
         <v>0</v>
@@ -30569,10 +30569,10 @@
         <v>2006</v>
       </c>
       <c r="F396" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G396" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>405</v>
@@ -30633,7 +30633,7 @@
         <v>2016</v>
       </c>
       <c r="F398" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G398" s="44" t="n">
         <v>0</v>
@@ -30665,10 +30665,10 @@
         <v>2021</v>
       </c>
       <c r="F399" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G399" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H399" t="s">
         <v>87</v>
@@ -30697,7 +30697,7 @@
         <v>2026</v>
       </c>
       <c r="F400" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G400" s="44" t="n">
         <v>0</v>
@@ -30729,7 +30729,7 @@
         <v>2031</v>
       </c>
       <c r="F401" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G401" s="44" t="n">
         <v>0</v>
@@ -30761,10 +30761,10 @@
         <v>2036</v>
       </c>
       <c r="F402" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G402" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H402" t="s">
         <v>87</v>
@@ -30825,7 +30825,7 @@
         <v>2046</v>
       </c>
       <c r="F404" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G404" s="44" t="n">
         <v>0</v>
@@ -30857,7 +30857,7 @@
         <v>2052</v>
       </c>
       <c r="F405" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G405" s="44" t="n">
         <v>0</v>
@@ -30889,7 +30889,7 @@
         <v>2055</v>
       </c>
       <c r="F406" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G406" s="44" t="n">
         <v>0</v>
@@ -30927,7 +30927,7 @@
         <v>2061</v>
       </c>
       <c r="F407" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G407" s="44" t="n">
         <v>0</v>
@@ -30962,7 +30962,7 @@
         <v>0</v>
       </c>
       <c r="G408" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H408" t="s">
         <v>87</v>
@@ -30994,7 +30994,7 @@
         <v>20</v>
       </c>
       <c r="F409" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G409" s="44" t="n">
         <v>0</v>
@@ -31026,7 +31026,7 @@
         <v>2076</v>
       </c>
       <c r="F410" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G410" s="44" t="n">
         <v>0</v>
@@ -31058,7 +31058,7 @@
         <v>2081</v>
       </c>
       <c r="F411" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G411" s="44" t="n">
         <v>0</v>
@@ -31125,7 +31125,7 @@
         <v>2091</v>
       </c>
       <c r="F413" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G413" s="44" t="n">
         <v>0</v>
@@ -31157,10 +31157,10 @@
         <v>2096</v>
       </c>
       <c r="F414" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H414" t="s">
         <v>405</v>
@@ -31189,10 +31189,10 @@
         <v>2101</v>
       </c>
       <c r="F415" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G415" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H415" t="s">
         <v>21</v>
@@ -31221,10 +31221,10 @@
         <v>2106</v>
       </c>
       <c r="F416" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G416" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H416" t="s">
         <v>87</v>
@@ -31291,7 +31291,7 @@
         <v>2118</v>
       </c>
       <c r="F418" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G418" s="44" t="n">
         <v>0</v>
@@ -31329,7 +31329,7 @@
         <v>2124</v>
       </c>
       <c r="F419" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G419" s="44" t="n">
         <v>0</v>
@@ -31425,7 +31425,7 @@
         <v>2139</v>
       </c>
       <c r="F422" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G422" s="44" t="n">
         <v>0</v>
@@ -31495,7 +31495,7 @@
         <v>2151</v>
       </c>
       <c r="F424" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G424" s="44" t="n">
         <v>0</v>
@@ -31527,7 +31527,7 @@
         <v>2157</v>
       </c>
       <c r="F425" s="44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G425" s="44" t="n">
         <v>0</v>
@@ -31559,7 +31559,7 @@
         <v>2162</v>
       </c>
       <c r="F426" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G426" s="44" t="n">
         <v>0</v>
@@ -31591,7 +31591,7 @@
         <v>2167</v>
       </c>
       <c r="F427" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G427" s="44" t="n">
         <v>0</v>
@@ -31687,7 +31687,7 @@
         <v>2180</v>
       </c>
       <c r="F430" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G430" s="44" t="n">
         <v>0</v>
@@ -31751,7 +31751,7 @@
         <v>2191</v>
       </c>
       <c r="F432" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G432" s="44" t="n">
         <v>0</v>
@@ -31815,10 +31815,10 @@
         <v>2201</v>
       </c>
       <c r="F434" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G434" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H434" t="s">
         <v>405</v>
@@ -31879,10 +31879,10 @@
         <v>2212</v>
       </c>
       <c r="F436" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G436" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H436" t="s">
         <v>87</v>
@@ -31911,7 +31911,7 @@
         <v>2217</v>
       </c>
       <c r="F437" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G437" s="44" t="n">
         <v>0</v>
@@ -31981,7 +31981,7 @@
         <v>2229</v>
       </c>
       <c r="F439" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G439" s="44" t="n">
         <v>0</v>
@@ -32095,7 +32095,7 @@
         <v>2243</v>
       </c>
       <c r="F442" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G442" s="44" t="n">
         <v>0</v>
@@ -32191,7 +32191,7 @@
         <v>2258</v>
       </c>
       <c r="F445" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G445" s="44" t="n">
         <v>0</v>
@@ -32223,7 +32223,7 @@
         <v>2263</v>
       </c>
       <c r="F446" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G446" s="44" t="n">
         <v>0</v>
@@ -32255,7 +32255,7 @@
         <v>2267</v>
       </c>
       <c r="F447" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G447" s="44" t="n">
         <v>0</v>
@@ -32287,7 +32287,7 @@
         <v>2270</v>
       </c>
       <c r="F448" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G448" s="44" t="n">
         <v>0</v>
@@ -32319,7 +32319,7 @@
         <v>2275</v>
       </c>
       <c r="F449" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G449" s="44" t="n">
         <v>0</v>
@@ -32351,7 +32351,7 @@
         <v>2280</v>
       </c>
       <c r="F450" s="44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G450" s="44" t="n">
         <v>0</v>
@@ -32389,7 +32389,7 @@
         <v>2287</v>
       </c>
       <c r="F451" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G451" s="44" t="n">
         <v>0</v>
@@ -32424,7 +32424,7 @@
         <v>2294</v>
       </c>
       <c r="F452" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G452" s="44" t="n">
         <v>0</v>
@@ -32529,7 +32529,7 @@
         <v>20</v>
       </c>
       <c r="F455" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G455" s="44" t="n">
         <v>0</v>
@@ -32564,7 +32564,7 @@
         <v>20</v>
       </c>
       <c r="F456" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G456" s="44" t="n">
         <v>0</v>
@@ -32593,7 +32593,7 @@
         <v>2321</v>
       </c>
       <c r="F457" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G457" s="44" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>2326</v>
       </c>
       <c r="F458" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G458" s="44" t="n">
         <v>0</v>
@@ -32657,7 +32657,7 @@
         <v>2331</v>
       </c>
       <c r="F459" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G459" s="44" t="n">
         <v>0</v>
@@ -32689,7 +32689,7 @@
         <v>2336</v>
       </c>
       <c r="F460" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G460" s="44" t="n">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>2341</v>
       </c>
       <c r="F461" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G461" s="44" t="n">
         <v>0</v>
@@ -32753,7 +32753,7 @@
         <v>2346</v>
       </c>
       <c r="F462" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G462" s="44" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>2351</v>
       </c>
       <c r="F463" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G463" s="44" t="n">
         <v>0</v>
@@ -32817,10 +32817,10 @@
         <v>2356</v>
       </c>
       <c r="F464" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G464" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H464" t="s">
         <v>1751</v>
@@ -32849,10 +32849,10 @@
         <v>2361</v>
       </c>
       <c r="F465" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G465" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H465" t="s">
         <v>1751</v>
@@ -32881,7 +32881,7 @@
         <v>2367</v>
       </c>
       <c r="F466" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G466" s="44" t="n">
         <v>0</v>
@@ -32942,7 +32942,7 @@
         <v>2379</v>
       </c>
       <c r="F468" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G468" s="44" t="n">
         <v>0</v>
@@ -33003,7 +33003,7 @@
         <v>2390</v>
       </c>
       <c r="F470" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G470" s="44" t="n">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>2395</v>
       </c>
       <c r="F471" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G471" s="44" t="n">
         <v>0</v>
@@ -33067,7 +33067,7 @@
         <v>2400</v>
       </c>
       <c r="F472" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G472" s="44" t="n">
         <v>0</v>
@@ -33096,7 +33096,7 @@
         <v>2405</v>
       </c>
       <c r="F473" s="44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G473" s="44" t="n">
         <v>0</v>
@@ -33128,7 +33128,7 @@
         <v>2410</v>
       </c>
       <c r="F474" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G474" s="44" t="n">
         <v>0</v>
@@ -33160,10 +33160,10 @@
         <v>2415</v>
       </c>
       <c r="F475" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G475" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H475" t="s">
         <v>1751</v>
@@ -33221,7 +33221,7 @@
         <v>2425</v>
       </c>
       <c r="F477" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G477" s="44" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>2430</v>
       </c>
       <c r="F478" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G478" s="44" t="n">
         <v>0</v>
@@ -33285,7 +33285,7 @@
         <v>2435</v>
       </c>
       <c r="F479" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G479" s="44" t="n">
         <v>0</v>
@@ -33355,7 +33355,7 @@
         <v>2447</v>
       </c>
       <c r="F481" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G481" s="44" t="n">
         <v>0</v>
@@ -33387,7 +33387,7 @@
         <v>2452</v>
       </c>
       <c r="F482" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G482" s="44" t="n">
         <v>0</v>
@@ -33416,7 +33416,7 @@
         <v>2458</v>
       </c>
       <c r="F483" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G483" s="44" t="n">
         <v>0</v>
@@ -33445,7 +33445,7 @@
         <v>2463</v>
       </c>
       <c r="F484" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G484" s="44" t="n">
         <v>0</v>
@@ -33477,7 +33477,7 @@
         <v>2468</v>
       </c>
       <c r="F485" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G485" s="44" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>2475</v>
       </c>
       <c r="F486" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G486" s="44" t="n">
         <v>0</v>
@@ -33535,7 +33535,7 @@
         <v>2480</v>
       </c>
       <c r="F487" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G487" s="44" t="n">
         <v>0</v>
@@ -33599,7 +33599,7 @@
         <v>2490</v>
       </c>
       <c r="F489" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G489" s="44" t="n">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>2512</v>
       </c>
       <c r="F493" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G493" s="44" t="n">
         <v>0</v>
@@ -33762,7 +33762,7 @@
         <v>2517</v>
       </c>
       <c r="F494" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G494" s="44" t="n">
         <v>0</v>
@@ -33794,10 +33794,10 @@
         <v>2522</v>
       </c>
       <c r="F495" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G495" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H495" t="s">
         <v>2374</v>
@@ -33826,7 +33826,7 @@
         <v>2528</v>
       </c>
       <c r="F496" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G496" s="44" t="n">
         <v>0</v>
@@ -33861,7 +33861,7 @@
         <v>2535</v>
       </c>
       <c r="F497" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G497" s="44" t="n">
         <v>1</v>
@@ -33893,7 +33893,7 @@
         <v>2540</v>
       </c>
       <c r="F498" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G498" s="44" t="n">
         <v>0</v>
@@ -33925,7 +33925,7 @@
         <v>2545</v>
       </c>
       <c r="F499" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G499" s="44" t="n">
         <v>0</v>
@@ -33957,7 +33957,7 @@
         <v>1405</v>
       </c>
       <c r="F500" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G500" s="44" t="n">
         <v>0</v>
@@ -34024,7 +34024,7 @@
         <v>2560</v>
       </c>
       <c r="F502" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G502" s="44" t="n">
         <v>0</v>
@@ -34088,7 +34088,7 @@
         <v>2570</v>
       </c>
       <c r="F504" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G504" s="44" t="n">
         <v>0</v>
@@ -34117,7 +34117,7 @@
         <v>2575</v>
       </c>
       <c r="F505" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G505" s="44" t="n">
         <v>0</v>
@@ -34146,10 +34146,10 @@
         <v>2581</v>
       </c>
       <c r="F506" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G506" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H506" t="s">
         <v>2469</v>
@@ -34175,7 +34175,7 @@
         <v>2586</v>
       </c>
       <c r="F507" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G507" s="44" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>2591</v>
       </c>
       <c r="F508" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G508" s="44" t="n">
         <v>0</v>
@@ -34236,7 +34236,7 @@
         <v>2596</v>
       </c>
       <c r="F509" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G509" s="44" t="n">
         <v>0</v>
@@ -34268,7 +34268,7 @@
         <v>2601</v>
       </c>
       <c r="F510" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G510" s="44" t="n">
         <v>0</v>
@@ -34300,7 +34300,7 @@
         <v>2606</v>
       </c>
       <c r="F511" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G511" s="44" t="n">
         <v>0</v>
@@ -34332,10 +34332,10 @@
         <v>2611</v>
       </c>
       <c r="F512" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G512" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H512" t="s">
         <v>2469</v>
@@ -34361,10 +34361,10 @@
         <v>2616</v>
       </c>
       <c r="F513" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G513" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H513" t="s">
         <v>2374</v>
@@ -34402,7 +34402,7 @@
         <v>0</v>
       </c>
       <c r="G514" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H514" t="s">
         <v>2469</v>
@@ -34428,10 +34428,10 @@
         <v>2628</v>
       </c>
       <c r="F515" s="44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G515" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H515" t="s">
         <v>2368</v>
@@ -34457,10 +34457,10 @@
         <v>2634</v>
       </c>
       <c r="F516" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G516" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H516" t="s">
         <v>2374</v>
@@ -34489,7 +34489,7 @@
         <v>2639</v>
       </c>
       <c r="F517" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G517" s="44" t="n">
         <v>0</v>
@@ -34550,7 +34550,7 @@
         <v>2649</v>
       </c>
       <c r="F519" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G519" s="44" t="n">
         <v>0</v>
@@ -34614,10 +34614,10 @@
         <v>2659</v>
       </c>
       <c r="F521" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G521" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H521" t="s">
         <v>2374</v>
@@ -34646,10 +34646,10 @@
         <v>2664</v>
       </c>
       <c r="F522" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G522" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H522" t="s">
         <v>2469</v>
@@ -34704,7 +34704,7 @@
         <v>2674</v>
       </c>
       <c r="F524" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G524" s="44" t="n">
         <v>0</v>
@@ -34736,7 +34736,7 @@
         <v>2679</v>
       </c>
       <c r="F525" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G525" s="44" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>2687</v>
       </c>
       <c r="F526" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G526" s="44" t="n">
         <v>0</v>
@@ -34806,10 +34806,10 @@
         <v>2692</v>
       </c>
       <c r="F527" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G527" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H527" t="s">
         <v>2693</v>
@@ -34838,7 +34838,7 @@
         <v>2698</v>
       </c>
       <c r="F528" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G528" s="44" t="n">
         <v>0</v>
@@ -34870,7 +34870,7 @@
         <v>2703</v>
       </c>
       <c r="F529" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G529" s="44" t="n">
         <v>0</v>
@@ -34902,7 +34902,7 @@
         <v>2708</v>
       </c>
       <c r="F530" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G530" s="44" t="n">
         <v>0</v>
@@ -34931,7 +34931,7 @@
         <v>2713</v>
       </c>
       <c r="F531" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G531" s="44" t="n">
         <v>0</v>
@@ -34960,7 +34960,7 @@
         <v>2718</v>
       </c>
       <c r="F532" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G532" s="44" t="n">
         <v>0</v>
@@ -34989,7 +34989,7 @@
         <v>2723</v>
       </c>
       <c r="F533" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G533" s="44" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>2728</v>
       </c>
       <c r="F534" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G534" s="44" t="n">
         <v>0</v>
@@ -35053,7 +35053,7 @@
         <v>2735</v>
       </c>
       <c r="F535" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G535" s="44" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>2743</v>
       </c>
       <c r="F536" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G536" s="44" t="n">
         <v>0</v>
@@ -35120,7 +35120,7 @@
         <v>2748</v>
       </c>
       <c r="F537" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G537" s="44" t="n">
         <v>0</v>
@@ -35152,7 +35152,7 @@
         <v>2753</v>
       </c>
       <c r="F538" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G538" s="44" t="n">
         <v>0</v>
@@ -35210,7 +35210,7 @@
         <v>2763</v>
       </c>
       <c r="F540" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G540" s="44" t="n">
         <v>0</v>
@@ -35239,10 +35239,10 @@
         <v>2768</v>
       </c>
       <c r="F541" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G541" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H541" t="s">
         <v>2469</v>
@@ -35271,7 +35271,7 @@
         <v>2773</v>
       </c>
       <c r="F542" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G542" s="44" t="n">
         <v>0</v>
@@ -35306,7 +35306,7 @@
         <v>2780</v>
       </c>
       <c r="F543" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G543" s="44" t="n">
         <v>0</v>
@@ -35338,7 +35338,7 @@
         <v>2785</v>
       </c>
       <c r="F544" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G544" s="44" t="n">
         <v>1</v>
@@ -35370,7 +35370,7 @@
         <v>2790</v>
       </c>
       <c r="F545" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G545" s="44" t="n">
         <v>0</v>
@@ -35408,7 +35408,7 @@
         <v>2798</v>
       </c>
       <c r="F546" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G546" s="44" t="n">
         <v>0</v>
@@ -35437,7 +35437,7 @@
         <v>2803</v>
       </c>
       <c r="F547" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G547" s="44" t="n">
         <v>0</v>
@@ -35466,10 +35466,10 @@
         <v>2808</v>
       </c>
       <c r="F548" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G548" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H548" t="s">
         <v>2453</v>
@@ -35498,7 +35498,7 @@
         <v>2813</v>
       </c>
       <c r="F549" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G549" s="44" t="n">
         <v>0</v>
@@ -35536,7 +35536,7 @@
         <v>2820</v>
       </c>
       <c r="F550" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G550" s="44" t="n">
         <v>0</v>
@@ -35597,7 +35597,7 @@
         <v>2830</v>
       </c>
       <c r="F552" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G552" s="44" t="n">
         <v>0</v>
@@ -35629,10 +35629,10 @@
         <v>2835</v>
       </c>
       <c r="F553" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G553" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H553" t="s">
         <v>2469</v>
@@ -35661,7 +35661,7 @@
         <v>1</v>
       </c>
       <c r="G554" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H554" t="s">
         <v>2374</v>
@@ -35696,7 +35696,7 @@
         <v>2847</v>
       </c>
       <c r="F555" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G555" s="44" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>2853</v>
       </c>
       <c r="F556" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G556" s="44" t="n">
         <v>0</v>
@@ -35757,10 +35757,10 @@
         <v>2858</v>
       </c>
       <c r="F557" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G557" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H557" t="s">
         <v>2374</v>
@@ -35786,7 +35786,7 @@
         <v>2863</v>
       </c>
       <c r="F558" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G558" s="44" t="n">
         <v>0</v>
@@ -35818,10 +35818,10 @@
         <v>2868</v>
       </c>
       <c r="F559" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G559" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H559" t="s">
         <v>2374</v>
@@ -35850,7 +35850,7 @@
         <v>2873</v>
       </c>
       <c r="F560" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G560" s="44" t="n">
         <v>0</v>
@@ -35882,10 +35882,10 @@
         <v>2878</v>
       </c>
       <c r="F561" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G561" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H561" t="s">
         <v>2469</v>
@@ -35911,7 +35911,7 @@
         <v>2883</v>
       </c>
       <c r="F562" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G562" s="44" t="n">
         <v>0</v>
@@ -35943,7 +35943,7 @@
         <v>2888</v>
       </c>
       <c r="F563" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G563" s="44" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>2893</v>
       </c>
       <c r="F564" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G564" s="44" t="n">
         <v>0</v>
@@ -36033,7 +36033,7 @@
         <v>2904</v>
       </c>
       <c r="F566" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G566" s="44" t="n">
         <v>0</v>
@@ -36071,7 +36071,7 @@
         <v>2911</v>
       </c>
       <c r="F567" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G567" s="44" t="n">
         <v>0</v>
@@ -36100,7 +36100,7 @@
         <v>2916</v>
       </c>
       <c r="F568" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G568" s="44" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>2921</v>
       </c>
       <c r="F569" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G569" s="44" t="n">
         <v>0</v>
@@ -36187,10 +36187,10 @@
         <v>2931</v>
       </c>
       <c r="F571" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G571" s="44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H571" t="s">
         <v>2453</v>
@@ -36222,7 +36222,7 @@
         <v>2938</v>
       </c>
       <c r="F572" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G572" s="44" t="n">
         <v>0</v>
@@ -36286,7 +36286,7 @@
         <v>2948</v>
       </c>
       <c r="F574" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G574" s="44" t="n">
         <v>0</v>
@@ -36318,7 +36318,7 @@
         <v>2953</v>
       </c>
       <c r="F575" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G575" s="44" t="n">
         <v>0</v>
@@ -36382,7 +36382,7 @@
         <v>2963</v>
       </c>
       <c r="F577" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G577" s="44" t="n">
         <v>1</v>
@@ -36411,7 +36411,7 @@
         <v>2968</v>
       </c>
       <c r="F578" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G578" s="44" t="n">
         <v>0</v>
@@ -36571,7 +36571,7 @@
         <v>2995</v>
       </c>
       <c r="F583" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G583" s="44" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>3002</v>
       </c>
       <c r="F584" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G584" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H584" t="s">
         <v>2374</v>
@@ -36644,7 +36644,7 @@
         <v>0</v>
       </c>
       <c r="G585" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H585" t="s">
         <v>2374</v>
@@ -36673,7 +36673,7 @@
         <v>3013</v>
       </c>
       <c r="F586" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G586" s="44" t="n">
         <v>0</v>
@@ -36702,7 +36702,7 @@
         <v>3018</v>
       </c>
       <c r="F587" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G587" s="44" t="n">
         <v>1</v>
@@ -36740,7 +36740,7 @@
         <v>3025</v>
       </c>
       <c r="F588" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G588" s="44" t="n">
         <v>0</v>
@@ -36798,7 +36798,7 @@
         <v>3035</v>
       </c>
       <c r="F590" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G590" s="44" t="n">
         <v>0</v>
@@ -36830,7 +36830,7 @@
         <v>3040</v>
       </c>
       <c r="F591" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G591" s="44" t="n">
         <v>0</v>
@@ -36859,7 +36859,7 @@
         <v>3045</v>
       </c>
       <c r="F592" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G592" s="44" t="n">
         <v>0</v>
@@ -36891,7 +36891,7 @@
         <v>3050</v>
       </c>
       <c r="F593" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G593" s="44" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>3055</v>
       </c>
       <c r="F594" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G594" s="44" t="n">
         <v>0</v>
@@ -36949,7 +36949,7 @@
         <v>3060</v>
       </c>
       <c r="F595" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G595" s="44" t="n">
         <v>0</v>
@@ -36978,7 +36978,7 @@
         <v>3066</v>
       </c>
       <c r="F596" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G596" s="44" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>3071</v>
       </c>
       <c r="F597" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G597" s="44" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>3078</v>
       </c>
       <c r="F598" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G598" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H598" t="s">
         <v>2469</v>
@@ -37106,7 +37106,7 @@
         <v>3088</v>
       </c>
       <c r="F600" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G600" s="44" t="n">
         <v>0</v>
@@ -37135,7 +37135,7 @@
         <v>3093</v>
       </c>
       <c r="F601" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G601" s="44" t="n">
         <v>0</v>
@@ -37167,10 +37167,10 @@
         <v>3098</v>
       </c>
       <c r="F602" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G602" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H602" t="s">
         <v>2469</v>
@@ -37263,10 +37263,10 @@
         <v>3111</v>
       </c>
       <c r="F605" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G605" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H605" t="s">
         <v>2469</v>
@@ -37295,7 +37295,7 @@
         <v>3117</v>
       </c>
       <c r="F606" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G606" s="44" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>3122</v>
       </c>
       <c r="F607" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G607" s="44" t="n">
         <v>0</v>
@@ -37356,10 +37356,10 @@
         <v>3127</v>
       </c>
       <c r="F608" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G608" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H608" t="s">
         <v>2374</v>
@@ -37388,7 +37388,7 @@
         <v>3132</v>
       </c>
       <c r="F609" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G609" s="44" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>3147</v>
       </c>
       <c r="F612" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G612" s="44" t="n">
         <v>0</v>
@@ -37516,10 +37516,10 @@
         <v>3152</v>
       </c>
       <c r="F613" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G613" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H613" t="s">
         <v>2374</v>
@@ -37548,7 +37548,7 @@
         <v>3157</v>
       </c>
       <c r="F614" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G614" s="44" t="n">
         <v>0</v>
@@ -37577,7 +37577,7 @@
         <v>3162</v>
       </c>
       <c r="F615" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G615" s="44" t="n">
         <v>0</v>
@@ -37606,10 +37606,10 @@
         <v>3168</v>
       </c>
       <c r="F616" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G616" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H616" t="s">
         <v>2469</v>
@@ -37644,10 +37644,10 @@
         <v>3175</v>
       </c>
       <c r="F617" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G617" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H617" t="s">
         <v>2469</v>
@@ -37673,10 +37673,10 @@
         <v>3180</v>
       </c>
       <c r="F618" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G618" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H618" t="s">
         <v>2469</v>
@@ -37702,7 +37702,7 @@
         <v>3185</v>
       </c>
       <c r="F619" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G619" s="44" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>3190</v>
       </c>
       <c r="F620" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G620" s="44" t="n">
         <v>0</v>
@@ -37763,7 +37763,7 @@
         <v>3195</v>
       </c>
       <c r="F621" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G621" s="44" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>3200</v>
       </c>
       <c r="F622" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G622" s="44" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>3220</v>
       </c>
       <c r="F626" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G626" s="44" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>20</v>
       </c>
       <c r="F627" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G627" s="44" t="n">
         <v>0</v>
@@ -37981,7 +37981,7 @@
         <v>3230</v>
       </c>
       <c r="F628" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G628" s="44" t="n">
         <v>1</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="G629" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H629" t="s">
         <v>2469</v>
@@ -38042,10 +38042,10 @@
         <v>3240</v>
       </c>
       <c r="F630" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G630" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H630" t="s">
         <v>2469</v>
@@ -38080,7 +38080,7 @@
         <v>3240</v>
       </c>
       <c r="F631" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G631" s="44" t="n">
         <v>0</v>
@@ -38118,10 +38118,10 @@
         <v>3240</v>
       </c>
       <c r="F632" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G632" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H632" t="s">
         <v>2469</v>
@@ -38156,7 +38156,7 @@
         <v>3247</v>
       </c>
       <c r="F633" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G633" s="44" t="n">
         <v>0</v>
@@ -38188,7 +38188,7 @@
         <v>3252</v>
       </c>
       <c r="F634" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G634" s="44" t="n">
         <v>0</v>
@@ -38220,7 +38220,7 @@
         <v>3257</v>
       </c>
       <c r="F635" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G635" s="44" t="n">
         <v>0</v>
@@ -38252,7 +38252,7 @@
         <v>0</v>
       </c>
       <c r="G636" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H636" t="s">
         <v>2374</v>
@@ -38290,7 +38290,7 @@
         <v>20</v>
       </c>
       <c r="F637" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G637" s="44" t="n">
         <v>0</v>
@@ -38322,7 +38322,7 @@
         <v>3275</v>
       </c>
       <c r="F638" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G638" s="44" t="n">
         <v>0</v>
@@ -38354,7 +38354,7 @@
         <v>3280</v>
       </c>
       <c r="F639" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G639" s="44" t="n">
         <v>0</v>
@@ -38383,7 +38383,7 @@
         <v>3285</v>
       </c>
       <c r="F640" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G640" s="44" t="n">
         <v>0</v>
@@ -38415,7 +38415,7 @@
         <v>3290</v>
       </c>
       <c r="F641" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G641" s="44" t="n">
         <v>0</v>
@@ -38447,7 +38447,7 @@
         <v>3295</v>
       </c>
       <c r="F642" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G642" s="44" t="n">
         <v>0</v>
@@ -38479,7 +38479,7 @@
         <v>3300</v>
       </c>
       <c r="F643" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G643" s="44" t="n">
         <v>0</v>
@@ -38511,7 +38511,7 @@
         <v>3305</v>
       </c>
       <c r="F644" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G644" s="44" t="n">
         <v>0</v>
@@ -38540,7 +38540,7 @@
         <v>3310</v>
       </c>
       <c r="F645" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G645" s="44" t="n">
         <v>0</v>
@@ -38572,7 +38572,7 @@
         <v>0</v>
       </c>
       <c r="G646" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H646" t="s">
         <v>2374</v>
@@ -38659,7 +38659,7 @@
         <v>3331</v>
       </c>
       <c r="F649" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G649" s="44" t="n">
         <v>0</v>
@@ -38688,7 +38688,7 @@
         <v>3336</v>
       </c>
       <c r="F650" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G650" s="44" t="n">
         <v>0</v>
@@ -38717,7 +38717,7 @@
         <v>3341</v>
       </c>
       <c r="F651" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G651" s="44" t="n">
         <v>0</v>
@@ -38746,7 +38746,7 @@
         <v>3346</v>
       </c>
       <c r="F652" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G652" s="44" t="n">
         <v>0</v>
@@ -38775,7 +38775,7 @@
         <v>3351</v>
       </c>
       <c r="F653" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G653" s="44" t="n">
         <v>0</v>
@@ -38804,7 +38804,7 @@
         <v>3356</v>
       </c>
       <c r="F654" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G654" s="44" t="n">
         <v>0</v>
@@ -38833,7 +38833,7 @@
         <v>3361</v>
       </c>
       <c r="F655" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G655" s="44" t="n">
         <v>0</v>
@@ -38897,7 +38897,7 @@
         <v>3371</v>
       </c>
       <c r="F657" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G657" s="44" t="n">
         <v>0</v>
@@ -38929,7 +38929,7 @@
         <v>3377</v>
       </c>
       <c r="F658" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G658" s="44" t="n">
         <v>0</v>
@@ -38990,10 +38990,10 @@
         <v>3387</v>
       </c>
       <c r="F660" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G660" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H660" t="s">
         <v>2368</v>
@@ -39022,7 +39022,7 @@
         <v>3392</v>
       </c>
       <c r="F661" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G661" s="44" t="n">
         <v>0</v>
@@ -39054,10 +39054,10 @@
         <v>3397</v>
       </c>
       <c r="F662" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G662" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H662" t="s">
         <v>2385</v>
@@ -39083,7 +39083,7 @@
         <v>3402</v>
       </c>
       <c r="F663" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G663" s="44" t="n">
         <v>0</v>
@@ -39115,7 +39115,7 @@
         <v>3407</v>
       </c>
       <c r="F664" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G664" s="44" t="n">
         <v>0</v>
@@ -39147,7 +39147,7 @@
         <v>3412</v>
       </c>
       <c r="F665" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G665" s="44" t="n">
         <v>0</v>
@@ -39176,7 +39176,7 @@
         <v>3417</v>
       </c>
       <c r="F666" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G666" s="44" t="n">
         <v>0</v>
@@ -39237,7 +39237,7 @@
         <v>3428</v>
       </c>
       <c r="F668" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G668" s="44" t="n">
         <v>0</v>
@@ -39269,7 +39269,7 @@
         <v>3433</v>
       </c>
       <c r="F669" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G669" s="44" t="n">
         <v>0</v>
@@ -39330,10 +39330,10 @@
         <v>3443</v>
       </c>
       <c r="F671" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G671" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H671" t="s">
         <v>2385</v>
@@ -39362,7 +39362,7 @@
         <v>0</v>
       </c>
       <c r="G672" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H672" t="s">
         <v>2368</v>
@@ -39391,7 +39391,7 @@
         <v>3453</v>
       </c>
       <c r="F673" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G673" s="44" t="n">
         <v>0</v>
@@ -39420,10 +39420,10 @@
         <v>3458</v>
       </c>
       <c r="F674" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G674" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H674" t="s">
         <v>2368</v>
@@ -39449,10 +39449,10 @@
         <v>3463</v>
       </c>
       <c r="F675" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G675" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H675" t="s">
         <v>2469</v>
@@ -39481,10 +39481,10 @@
         <v>3468</v>
       </c>
       <c r="F676" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G676" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H676" t="s">
         <v>2385</v>
@@ -39510,7 +39510,7 @@
         <v>3474</v>
       </c>
       <c r="F677" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G677" s="44" t="n">
         <v>0</v>
@@ -39542,10 +39542,10 @@
         <v>3479</v>
       </c>
       <c r="F678" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G678" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H678" t="s">
         <v>2693</v>
@@ -39571,7 +39571,7 @@
         <v>3484</v>
       </c>
       <c r="F679" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G679" s="44" t="n">
         <v>0</v>
@@ -39661,7 +39661,7 @@
         <v>3499</v>
       </c>
       <c r="F682" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G682" s="44" t="n">
         <v>0</v>
@@ -39693,7 +39693,7 @@
         <v>3504</v>
       </c>
       <c r="F683" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G683" s="44" t="n">
         <v>0</v>
@@ -39722,7 +39722,7 @@
         <v>3509</v>
       </c>
       <c r="F684" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G684" s="44" t="n">
         <v>0</v>
@@ -39754,7 +39754,7 @@
         <v>3514</v>
       </c>
       <c r="F685" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G685" s="44" t="n">
         <v>0</v>
@@ -39783,10 +39783,10 @@
         <v>3519</v>
       </c>
       <c r="F686" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G686" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H686" t="s">
         <v>2385</v>
@@ -39815,10 +39815,10 @@
         <v>3525</v>
       </c>
       <c r="F687" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G687" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H687" t="s">
         <v>2385</v>
@@ -39844,7 +39844,7 @@
         <v>3530</v>
       </c>
       <c r="F688" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G688" s="44" t="n">
         <v>0</v>
@@ -39876,10 +39876,10 @@
         <v>3535</v>
       </c>
       <c r="F689" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G689" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H689" t="s">
         <v>2385</v>
@@ -39969,10 +39969,10 @@
         <v>3550</v>
       </c>
       <c r="F692" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G692" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H692" t="s">
         <v>2385</v>
@@ -39998,7 +39998,7 @@
         <v>3555</v>
       </c>
       <c r="F693" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G693" s="44" t="n">
         <v>0</v>
@@ -40062,7 +40062,7 @@
         <v>3565</v>
       </c>
       <c r="F695" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G695" s="44" t="n">
         <v>0</v>
@@ -40091,7 +40091,7 @@
         <v>3570</v>
       </c>
       <c r="F696" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G696" s="44" t="n">
         <v>0</v>
@@ -40123,7 +40123,7 @@
         <v>3575</v>
       </c>
       <c r="F697" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G697" s="44" t="n">
         <v>0</v>
@@ -40152,7 +40152,7 @@
         <v>3579</v>
       </c>
       <c r="F698" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G698" s="44" t="n">
         <v>0</v>
@@ -40181,10 +40181,10 @@
         <v>3584</v>
       </c>
       <c r="F699" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G699" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H699" t="s">
         <v>2385</v>
@@ -40242,7 +40242,7 @@
         <v>3593</v>
       </c>
       <c r="F701" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G701" s="44" t="n">
         <v>0</v>
@@ -40274,7 +40274,7 @@
         <v>3598</v>
       </c>
       <c r="F702" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G702" s="44" t="n">
         <v>0</v>
@@ -40303,10 +40303,10 @@
         <v>3603</v>
       </c>
       <c r="F703" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G703" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H703" t="s">
         <v>2374</v>
@@ -40370,7 +40370,7 @@
         <v>0</v>
       </c>
       <c r="G705" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H705" t="s">
         <v>2385</v>
@@ -40399,7 +40399,7 @@
         <v>3618</v>
       </c>
       <c r="F706" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G706" s="44" t="n">
         <v>0</v>
@@ -40460,7 +40460,7 @@
         <v>20</v>
       </c>
       <c r="F708" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G708" s="44" t="n">
         <v>0</v>
@@ -40489,7 +40489,7 @@
         <v>3633</v>
       </c>
       <c r="F709" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G709" s="44" t="n">
         <v>0</v>
@@ -40518,7 +40518,7 @@
         <v>3638</v>
       </c>
       <c r="F710" s="44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G710" s="44" t="n">
         <v>0</v>
@@ -40550,10 +40550,10 @@
         <v>3643</v>
       </c>
       <c r="F711" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G711" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H711" t="s">
         <v>2368</v>
@@ -40579,7 +40579,7 @@
         <v>3648</v>
       </c>
       <c r="F712" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G712" s="44" t="n">
         <v>0</v>
@@ -40640,7 +40640,7 @@
         <v>3658</v>
       </c>
       <c r="F714" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G714" s="44" t="n">
         <v>0</v>
@@ -40669,10 +40669,10 @@
         <v>3663</v>
       </c>
       <c r="F715" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G715" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H715" t="s">
         <v>2374</v>
@@ -40727,10 +40727,10 @@
         <v>3673</v>
       </c>
       <c r="F717" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G717" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H717" t="s">
         <v>2368</v>
@@ -40788,10 +40788,10 @@
         <v>3683</v>
       </c>
       <c r="F719" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G719" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H719" t="s">
         <v>2368</v>
@@ -40852,7 +40852,7 @@
         <v>3693</v>
       </c>
       <c r="F721" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G721" s="44" t="n">
         <v>0</v>
@@ -40887,7 +40887,7 @@
         <v>3700</v>
       </c>
       <c r="F722" s="44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G722" s="44" t="n">
         <v>0</v>
@@ -40922,7 +40922,7 @@
         <v>3707</v>
       </c>
       <c r="F723" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G723" s="44" t="n">
         <v>0</v>
@@ -40951,7 +40951,7 @@
         <v>3712</v>
       </c>
       <c r="F724" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G724" s="44" t="n">
         <v>0</v>
@@ -40983,7 +40983,7 @@
         <v>3717</v>
       </c>
       <c r="F725" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G725" s="44" t="n">
         <v>0</v>
@@ -41012,7 +41012,7 @@
         <v>3722</v>
       </c>
       <c r="F726" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G726" s="44" t="n">
         <v>0</v>
@@ -41044,7 +41044,7 @@
         <v>3727</v>
       </c>
       <c r="F727" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G727" s="44" t="n">
         <v>0</v>
@@ -41073,7 +41073,7 @@
         <v>3732</v>
       </c>
       <c r="F728" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G728" s="44" t="n">
         <v>0</v>
@@ -41102,7 +41102,7 @@
         <v>3737</v>
       </c>
       <c r="F729" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G729" s="44" t="n">
         <v>0</v>
@@ -41134,7 +41134,7 @@
         <v>0</v>
       </c>
       <c r="G730" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H730" t="s">
         <v>2368</v>
@@ -41160,7 +41160,7 @@
         <v>3747</v>
       </c>
       <c r="F731" s="44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G731" s="44" t="n">
         <v>0</v>
@@ -41192,7 +41192,7 @@
         <v>3752</v>
       </c>
       <c r="F732" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G732" s="44" t="n">
         <v>0</v>
@@ -41221,7 +41221,7 @@
         <v>3757</v>
       </c>
       <c r="F733" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G733" s="44" t="n">
         <v>0</v>
@@ -41253,10 +41253,10 @@
         <v>3762</v>
       </c>
       <c r="F734" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G734" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H734" t="s">
         <v>2368</v>
@@ -41314,7 +41314,7 @@
         <v>3771</v>
       </c>
       <c r="F736" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G736" s="44" t="n">
         <v>0</v>
@@ -41355,7 +41355,7 @@
         <v>0</v>
       </c>
       <c r="G737" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H737" t="s">
         <v>2368</v>
@@ -41381,7 +41381,7 @@
         <v>3783</v>
       </c>
       <c r="F738" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G738" s="44" t="n">
         <v>0</v>
@@ -41410,7 +41410,7 @@
         <v>3788</v>
       </c>
       <c r="F739" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G739" s="44" t="n">
         <v>0</v>
@@ -41442,7 +41442,7 @@
         <v>3793</v>
       </c>
       <c r="F740" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G740" s="44" t="n">
         <v>0</v>
@@ -41474,7 +41474,7 @@
         <v>3798</v>
       </c>
       <c r="F741" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G741" s="44" t="n">
         <v>0</v>
@@ -41506,7 +41506,7 @@
         <v>3801</v>
       </c>
       <c r="F742" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G742" s="44" t="n">
         <v>0</v>
@@ -41538,7 +41538,7 @@
         <v>3807</v>
       </c>
       <c r="F743" s="44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G743" s="44" t="n">
         <v>0</v>
@@ -41570,7 +41570,7 @@
         <v>3812</v>
       </c>
       <c r="F744" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G744" s="44" t="n">
         <v>0</v>
@@ -41602,7 +41602,7 @@
         <v>3815</v>
       </c>
       <c r="F745" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G745" s="44" t="n">
         <v>0</v>
@@ -41634,7 +41634,7 @@
         <v>806</v>
       </c>
       <c r="F746" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G746" s="44" t="n">
         <v>0</v>
@@ -41666,7 +41666,7 @@
         <v>3821</v>
       </c>
       <c r="F747" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G747" s="44" t="n">
         <v>0</v>
@@ -41701,7 +41701,7 @@
         <v>0</v>
       </c>
       <c r="G748" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H748" t="s">
         <v>646</v>
@@ -41730,7 +41730,7 @@
         <v>3829</v>
       </c>
       <c r="F749" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G749" s="44" t="n">
         <v>0</v>
@@ -41762,7 +41762,7 @@
         <v>3835</v>
       </c>
       <c r="F750" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G750" s="44" t="n">
         <v>0</v>
@@ -41794,7 +41794,7 @@
         <v>3840</v>
       </c>
       <c r="F751" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G751" s="44" t="n">
         <v>0</v>
@@ -41826,7 +41826,7 @@
         <v>3843</v>
       </c>
       <c r="F752" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G752" s="44" t="n">
         <v>0</v>
@@ -41858,10 +41858,10 @@
         <v>3849</v>
       </c>
       <c r="F753" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G753" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H753" t="s">
         <v>478</v>
@@ -41893,7 +41893,7 @@
         <v>20</v>
       </c>
       <c r="F754" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G754" s="44" t="n">
         <v>0</v>
@@ -41957,7 +41957,7 @@
         <v>3865</v>
       </c>
       <c r="F756" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G756" s="44" t="n">
         <v>0</v>
@@ -42024,7 +42024,7 @@
         <v>20</v>
       </c>
       <c r="F758" s="44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G758" s="44" t="n">
         <v>0</v>
@@ -42056,7 +42056,7 @@
         <v>3880</v>
       </c>
       <c r="F759" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G759" s="44" t="n">
         <v>0</v>
@@ -42123,7 +42123,7 @@
         <v>3892</v>
       </c>
       <c r="F761" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G761" s="44" t="n">
         <v>0</v>
@@ -42155,7 +42155,7 @@
         <v>3897</v>
       </c>
       <c r="F762" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G762" s="44" t="n">
         <v>0</v>
@@ -42187,7 +42187,7 @@
         <v>3902</v>
       </c>
       <c r="F763" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G763" s="44" t="n">
         <v>0</v>
@@ -42222,7 +42222,7 @@
         <v>0</v>
       </c>
       <c r="G764" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H764" t="s">
         <v>726</v>
@@ -42251,10 +42251,10 @@
         <v>3912</v>
       </c>
       <c r="F765" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G765" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H765" t="s">
         <v>478</v>
@@ -42283,10 +42283,10 @@
         <v>3917</v>
       </c>
       <c r="F766" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G766" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H766" t="s">
         <v>21</v>
@@ -42315,7 +42315,7 @@
         <v>3921</v>
       </c>
       <c r="F767" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G767" s="44" t="n">
         <v>0</v>
@@ -42347,7 +42347,7 @@
         <v>3926</v>
       </c>
       <c r="F768" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G768" s="44" t="n">
         <v>0</v>
@@ -42443,7 +42443,7 @@
         <v>3941</v>
       </c>
       <c r="F771" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G771" s="44" t="n">
         <v>0</v>
@@ -42507,7 +42507,7 @@
         <v>3948</v>
       </c>
       <c r="F773" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G773" s="44" t="n">
         <v>0</v>
@@ -42539,7 +42539,7 @@
         <v>3953</v>
       </c>
       <c r="F774" s="44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G774" s="44" t="n">
         <v>0</v>
@@ -42571,7 +42571,7 @@
         <v>3958</v>
       </c>
       <c r="F775" s="44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G775" s="44" t="n">
         <v>0</v>
@@ -42635,7 +42635,7 @@
         <v>3962</v>
       </c>
       <c r="F777" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G777" s="44" t="n">
         <v>0</v>
@@ -42667,7 +42667,7 @@
         <v>3968</v>
       </c>
       <c r="F778" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G778" s="44" t="n">
         <v>0</v>
@@ -42731,7 +42731,7 @@
         <v>3978</v>
       </c>
       <c r="F780" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G780" s="44" t="n">
         <v>0</v>
@@ -42763,7 +42763,7 @@
         <v>3983</v>
       </c>
       <c r="F781" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G781" s="44" t="n">
         <v>0</v>
@@ -42798,7 +42798,7 @@
         <v>20</v>
       </c>
       <c r="F782" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G782" s="44" t="n">
         <v>0</v>
@@ -42830,10 +42830,10 @@
         <v>3993</v>
       </c>
       <c r="F783" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G783" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H783" t="s">
         <v>478</v>
@@ -42862,7 +42862,7 @@
         <v>3998</v>
       </c>
       <c r="F784" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G784" s="44" t="n">
         <v>0</v>
@@ -42961,7 +42961,7 @@
         <v>20</v>
       </c>
       <c r="F787" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G787" s="44" t="n">
         <v>0</v>
@@ -43057,7 +43057,7 @@
         <v>4028</v>
       </c>
       <c r="F790" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G790" s="44" t="n">
         <v>0</v>
@@ -43089,7 +43089,7 @@
         <v>4033</v>
       </c>
       <c r="F791" s="44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G791" s="44" t="n">
         <v>0</v>
@@ -43121,10 +43121,10 @@
         <v>4038</v>
       </c>
       <c r="F792" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G792" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H792" t="s">
         <v>478</v>
@@ -43156,7 +43156,7 @@
         <v>0</v>
       </c>
       <c r="G793" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H793" t="s">
         <v>646</v>
@@ -43185,7 +43185,7 @@
         <v>4048</v>
       </c>
       <c r="F794" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G794" s="44" t="n">
         <v>0</v>
@@ -43217,7 +43217,7 @@
         <v>4053</v>
       </c>
       <c r="F795" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G795" s="44" t="n">
         <v>0</v>
@@ -43249,7 +43249,7 @@
         <v>4058</v>
       </c>
       <c r="F796" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G796" s="44" t="n">
         <v>0</v>
@@ -43281,10 +43281,10 @@
         <v>4063</v>
       </c>
       <c r="F797" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G797" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H797" t="s">
         <v>478</v>
@@ -43313,7 +43313,7 @@
         <v>4068</v>
       </c>
       <c r="F798" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G798" s="44" t="n">
         <v>0</v>
@@ -43345,7 +43345,7 @@
         <v>4073</v>
       </c>
       <c r="F799" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G799" s="44" t="n">
         <v>0</v>
@@ -43377,7 +43377,7 @@
         <v>4078</v>
       </c>
       <c r="F800" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G800" s="44" t="n">
         <v>0</v>
@@ -43409,7 +43409,7 @@
         <v>4083</v>
       </c>
       <c r="F801" s="44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G801" s="44" t="n">
         <v>0</v>
@@ -43441,7 +43441,7 @@
         <v>4088</v>
       </c>
       <c r="F802" s="44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G802" s="44" t="n">
         <v>0</v>
@@ -43473,10 +43473,10 @@
         <v>4093</v>
       </c>
       <c r="F803" s="44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G803" s="44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H803" t="s">
         <v>48</v>
